--- a/SQL/参数汇总.xlsx
+++ b/SQL/参数汇总.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="33" documentId="171E32C3DB3A5E1BFE84DAD3351EA0FC19E220FC" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{05203F73-4D90-44E9-AB53-EDA12E0DB32A}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="171E32C3DB3A5E1BFE84DAD3351EA0FC19E220FC" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{2E3249D9-DC8A-40B8-AC24-4443A0E9F41F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
   <si>
     <t>病人基本信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,6 +307,76 @@
   </si>
   <si>
     <t>peep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pao2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收缩压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒张压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2400？</t>
+  </si>
+  <si>
+    <t>2408？</t>
+  </si>
+  <si>
+    <t>pip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plateau pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -542,25 +613,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -574,6 +627,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -857,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -871,14 +948,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
@@ -895,10 +972,10 @@
       <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="25"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
@@ -915,10 +992,10 @@
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="29"/>
+      <c r="F3" s="34"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
@@ -935,14 +1012,14 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
@@ -1043,12 +1120,12 @@
       <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="1"/>
@@ -1067,10 +1144,10 @@
       <c r="D13" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="27"/>
+      <c r="F13" s="33"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
@@ -1087,10 +1164,10 @@
       <c r="D14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="33"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
@@ -1107,10 +1184,10 @@
       <c r="D15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="34"/>
+      <c r="F15" s="28"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1122,10 +1199,10 @@
       <c r="D16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="34"/>
+      <c r="F16" s="28"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1135,23 +1212,23 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="34"/>
+      <c r="F17" s="28"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1164,11 +1241,11 @@
       <c r="C19" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
@@ -1182,11 +1259,11 @@
       <c r="C20" s="1">
         <v>220210</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="27">
         <v>220224</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
@@ -1200,11 +1277,11 @@
       <c r="C21" s="1">
         <v>618</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="27">
         <v>779</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="17">
@@ -1216,11 +1293,11 @@
       <c r="C22" s="17">
         <v>615</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
@@ -1267,18 +1344,18 @@
       <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="31"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -1564,6 +1641,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="D20:F20"/>
@@ -1574,17 +1659,330 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEC1110-1AD2-49F8-87FD-6757D3CD7708}">
+  <dimension ref="A1:T9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:T1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="36"/>
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="36"/>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="36"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="24">
+        <v>444</v>
+      </c>
+      <c r="S2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="24">
+        <v>220277</v>
+      </c>
+      <c r="C3">
+        <v>220224</v>
+      </c>
+      <c r="D3">
+        <v>50821</v>
+      </c>
+      <c r="E3">
+        <v>190</v>
+      </c>
+      <c r="F3">
+        <v>50816</v>
+      </c>
+      <c r="G3">
+        <v>211</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3">
+        <v>442</v>
+      </c>
+      <c r="K3">
+        <v>8440</v>
+      </c>
+      <c r="L3">
+        <v>456</v>
+      </c>
+      <c r="M3" s="24">
+        <v>220210</v>
+      </c>
+      <c r="N3">
+        <v>224685</v>
+      </c>
+      <c r="O3">
+        <v>507</v>
+      </c>
+      <c r="P3">
+        <v>543</v>
+      </c>
+      <c r="Q3">
+        <v>445</v>
+      </c>
+      <c r="R3" s="24">
+        <v>3503</v>
+      </c>
+      <c r="S3" s="4">
+        <v>220339</v>
+      </c>
+      <c r="T3" s="4">
+        <v>50819</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B4" s="24">
+        <v>646</v>
+      </c>
+      <c r="C4">
+        <v>779</v>
+      </c>
+      <c r="E4">
+        <v>3420</v>
+      </c>
+      <c r="G4">
+        <v>220045</v>
+      </c>
+      <c r="H4">
+        <v>223762</v>
+      </c>
+      <c r="I4">
+        <v>223761</v>
+      </c>
+      <c r="J4">
+        <v>455</v>
+      </c>
+      <c r="K4">
+        <v>8441</v>
+      </c>
+      <c r="L4">
+        <v>443</v>
+      </c>
+      <c r="M4" s="24">
+        <v>618</v>
+      </c>
+      <c r="N4">
+        <v>682</v>
+      </c>
+      <c r="O4">
+        <v>535</v>
+      </c>
+      <c r="P4">
+        <v>224696</v>
+      </c>
+      <c r="Q4">
+        <v>448</v>
+      </c>
+      <c r="R4" s="24">
+        <v>224697</v>
+      </c>
+      <c r="S4" s="4">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>223835</v>
+      </c>
+      <c r="H5">
+        <v>676</v>
+      </c>
+      <c r="I5">
+        <v>678</v>
+      </c>
+      <c r="J5">
+        <v>220179</v>
+      </c>
+      <c r="K5">
+        <v>220180</v>
+      </c>
+      <c r="L5">
+        <v>220181</v>
+      </c>
+      <c r="M5" s="24">
+        <v>615</v>
+      </c>
+      <c r="N5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5">
+        <v>224695</v>
+      </c>
+      <c r="Q5">
+        <v>450</v>
+      </c>
+      <c r="R5" s="24">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>3422</v>
+      </c>
+      <c r="H6">
+        <v>677</v>
+      </c>
+      <c r="I6">
+        <v>679</v>
+      </c>
+      <c r="M6" s="24">
+        <v>224690</v>
+      </c>
+      <c r="N6">
+        <v>2420</v>
+      </c>
+      <c r="Q6">
+        <v>224687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>2534</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="S1:T1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SQL/参数汇总.xlsx
+++ b/SQL/参数汇总.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="118" documentId="171E32C3DB3A5E1BFE84DAD3351EA0FC19E220FC" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{2E3249D9-DC8A-40B8-AC24-4443A0E9F41F}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="171E32C3DB3A5E1BFE84DAD3351EA0FC19E220FC" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{426830D9-77A8-4168-98C2-C5ACA32CB963}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
   <si>
     <t>病人基本信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -377,6 +377,30 @@
   </si>
   <si>
     <t>map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arterial BP Mean</t>
+  </si>
+  <si>
+    <t>Arterial Blood Pressure mean</t>
+  </si>
+  <si>
+    <t>Arterial BP Mean #2</t>
+  </si>
+  <si>
+    <t>ART BP mean</t>
+  </si>
+  <si>
+    <t>ml/b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,6 +640,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -626,27 +671,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -932,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -948,14 +972,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
@@ -972,10 +996,10 @@
       <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="31"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
@@ -992,10 +1016,10 @@
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="34"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
@@ -1012,14 +1036,14 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
@@ -1144,10 +1168,10 @@
       <c r="D13" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="33"/>
+      <c r="F13" s="28"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
@@ -1164,10 +1188,10 @@
       <c r="D14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="27"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
@@ -1184,10 +1208,10 @@
       <c r="D15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="35"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1199,10 +1223,10 @@
       <c r="D16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="35"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1212,10 +1236,10 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="28"/>
+      <c r="F17" s="35"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1241,11 +1265,11 @@
       <c r="C19" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
@@ -1259,11 +1283,11 @@
       <c r="C20" s="1">
         <v>220210</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="34">
         <v>220224</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
@@ -1277,11 +1301,11 @@
       <c r="C21" s="1">
         <v>618</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="34">
         <v>779</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="17">
@@ -1293,11 +1317,11 @@
       <c r="C22" s="17">
         <v>615</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
@@ -1344,18 +1368,18 @@
       <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="25"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -1564,91 +1588,115 @@
         <v>65</v>
       </c>
     </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>220052</v>
+      </c>
+      <c r="B49" t="s">
+        <v>94</v>
+      </c>
+    </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" t="s">
-        <v>70</v>
+      <c r="A50">
+        <v>6702</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
+        <v>225312</v>
+      </c>
+      <c r="B51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>507</v>
       </c>
-      <c r="B51">
+      <c r="B54">
         <v>543</v>
       </c>
-      <c r="C51">
+      <c r="C54">
         <v>445</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>535</v>
       </c>
-      <c r="B52">
+      <c r="B55">
         <v>224696</v>
       </c>
-      <c r="C52">
+      <c r="C55">
         <v>448</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>224695</v>
       </c>
-      <c r="C53">
+      <c r="C56">
         <v>450</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C54">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C57">
         <v>224687</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57">
-        <v>50816</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58">
-        <v>50821</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60">
+        <v>50816</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61">
+        <v>50821</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>74</v>
       </c>
-      <c r="B59">
+      <c r="B62">
         <v>50819</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="D20:F20"/>
@@ -1659,6 +1707,14 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1668,18 +1724,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEC1110-1AD2-49F8-87FD-6757D3CD7708}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:T1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -1716,24 +1772,24 @@
       <c r="N1" t="s">
         <v>87</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>90</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>91</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>70</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>92</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="T1" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="T1" s="36"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" s="36"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -1773,26 +1829,26 @@
       <c r="N2" t="s">
         <v>76</v>
       </c>
-      <c r="O2" t="s">
-        <v>76</v>
-      </c>
       <c r="P2" t="s">
         <v>76</v>
       </c>
       <c r="Q2" t="s">
         <v>76</v>
       </c>
-      <c r="R2" s="24">
+      <c r="R2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="24">
         <v>444</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>76</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -1835,26 +1891,29 @@
       <c r="N3">
         <v>224685</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="s">
+        <v>98</v>
+      </c>
+      <c r="P3">
         <v>507</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>543</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>445</v>
       </c>
-      <c r="R3" s="24">
+      <c r="S3" s="24">
         <v>3503</v>
       </c>
-      <c r="S3" s="4">
+      <c r="T3" s="4">
         <v>220339</v>
       </c>
-      <c r="T3" s="4">
+      <c r="U3" s="4">
         <v>50819</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B4" s="24">
         <v>646</v>
       </c>
@@ -1888,23 +1947,26 @@
       <c r="N4">
         <v>682</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="s">
+        <v>97</v>
+      </c>
+      <c r="P4">
         <v>535</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>224696</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>448</v>
       </c>
-      <c r="R4" s="24">
+      <c r="S4" s="24">
         <v>224697</v>
       </c>
-      <c r="S4" s="4">
+      <c r="T4" s="4">
         <v>506</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E5">
         <v>223835</v>
       </c>
@@ -1929,17 +1991,20 @@
       <c r="N5" t="s">
         <v>88</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="s">
+        <v>99</v>
+      </c>
+      <c r="P5">
         <v>224695</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>450</v>
       </c>
-      <c r="R5" s="24">
+      <c r="S5" s="24">
         <v>3502</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E6">
         <v>3422</v>
       </c>
@@ -1955,23 +2020,35 @@
       <c r="N6">
         <v>2420</v>
       </c>
-      <c r="Q6">
+      <c r="O6" t="s">
+        <v>99</v>
+      </c>
+      <c r="R6">
         <v>224687</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N8">
         <v>681</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N9">
         <v>2534</v>
+      </c>
+      <c r="O9" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +2056,7 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
